--- a/Bug Reports/Scripted Defect Report.xlsx
+++ b/Bug Reports/Scripted Defect Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gladius/Documents/SENG 637/Assignment 1/a1-ExGranite/Bug Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3014AF-CC4B-6B41-A6E3-806F271F841B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AEBD74-E6AE-E04C-8302-97F6F42BEC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="960" windowWidth="33420" windowHeight="21140" xr2:uid="{A07C5CE1-8239-7940-856B-018EAA5653E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="158">
   <si>
     <t>Test Case</t>
   </si>
@@ -504,6 +504,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Also found during exploratory test</t>
   </si>
 </sst>
 </file>
@@ -890,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5A16A1-E745-6E48-B52F-6963B7701D4B}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -899,10 +905,12 @@
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
     <col min="3" max="8" width="30.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.83203125" style="1"/>
+    <col min="9" max="12" width="15.83203125" style="1"/>
+    <col min="13" max="13" width="25.83203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,8 +947,11 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -978,7 +989,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1016,7 +1027,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1054,7 +1065,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1092,7 +1103,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1129,8 +1140,11 @@
       <c r="L6" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1168,7 +1182,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1206,7 +1220,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1244,7 +1258,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1282,7 +1296,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1320,7 +1334,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1358,7 +1372,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1396,7 +1410,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1434,7 +1448,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1471,8 +1485,11 @@
       <c r="L15" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1510,7 +1527,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1548,7 +1565,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1586,7 +1603,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1624,7 +1641,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1662,7 +1679,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1700,7 +1717,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1738,7 +1755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1775,8 +1792,11 @@
       <c r="L23" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1814,7 +1834,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1852,7 +1872,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1890,7 +1910,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1928,7 +1948,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1966,7 +1986,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2004,7 +2024,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2042,7 +2062,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2080,7 +2100,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2344,6 +2364,9 @@
       </c>
       <c r="L38" s="1" t="s">
         <v>144</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">

--- a/Bug Reports/Scripted Defect Report.xlsx
+++ b/Bug Reports/Scripted Defect Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gladius/Documents/SENG 637/Assignment 1/a1-ExGranite/Bug Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AEBD74-E6AE-E04C-8302-97F6F42BEC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C0FEC-DC44-F14F-8050-ACAB400BC580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="960" windowWidth="33420" windowHeight="21140" xr2:uid="{A07C5CE1-8239-7940-856B-018EAA5653E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="158">
   <si>
     <t>Test Case</t>
   </si>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5A16A1-E745-6E48-B52F-6963B7701D4B}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1447,6 +1447,9 @@
       <c r="L14" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="M14" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2060,6 +2063,9 @@
       </c>
       <c r="L30" s="1" t="s">
         <v>144</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">

--- a/Bug Reports/Scripted Defect Report.xlsx
+++ b/Bug Reports/Scripted Defect Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gladius/Documents/SENG 637/Assignment 1/a1-ExGranite/Bug Reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saadz-khan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C0FEC-DC44-F14F-8050-ACAB400BC580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EE9D17-5A58-7149-8D14-F3AB14C0EEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="960" windowWidth="33420" windowHeight="21140" xr2:uid="{A07C5CE1-8239-7940-856B-018EAA5653E2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A07C5CE1-8239-7940-856B-018EAA5653E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -897,7 +897,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
